--- a/swings/2021-11-22/KUCOIN_SPOT_CGG_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_CGG_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>1.716</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -709,6 +719,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -761,6 +772,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -813,6 +825,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +880,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>1.7495</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1025,6 +1045,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1079,6 +1100,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>1.8642</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1157,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1214,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>1.8295</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1241,6 +1271,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>1.7158</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1295,6 +1328,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>1.7521</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1385,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1440,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1453,6 +1493,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1505,6 +1546,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1601,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>1.8002</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1613,6 +1658,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O22" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1713,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1717,6 +1766,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1771,6 +1821,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>1.8021</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1878,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>1.7289</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1877,6 +1933,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1929,6 +1986,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1983,6 +2041,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>1.8027</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2037,6 +2098,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>1.703</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2089,6 +2153,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2141,6 +2206,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2259,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2247,6 +2314,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>1.7998</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2299,6 +2369,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2353,6 +2424,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>1.7462</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2407,6 +2481,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>1.9101</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2459,6 +2536,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2513,6 +2591,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>1.7666</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2565,6 +2646,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2619,6 +2701,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>1.9644</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2758,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>1.7512</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2727,6 +2815,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>1.7963</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2870,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2833,6 +2925,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>1.7453</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2885,6 +2980,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2937,6 +3033,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3088,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>1.8182</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3043,6 +3143,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3095,6 +3196,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3251,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>1.7464</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3306,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3253,6 +3359,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3305,6 +3412,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3357,6 +3465,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3409,6 +3518,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3463,6 +3573,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>1.8278</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3517,6 +3630,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>1.7982</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3569,6 +3685,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3621,6 +3738,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3673,6 +3791,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3727,6 +3846,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>1.8928</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3779,6 +3901,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3831,6 +3954,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3885,6 +4009,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>1.7887</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3937,6 +4064,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3991,6 +4119,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>1.8335</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4045,6 +4176,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>1.7428</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4097,6 +4231,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4151,6 +4286,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>1.7725</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4205,6 +4343,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4259,6 +4400,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>1.7597</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4311,6 +4455,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4363,6 +4508,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4417,6 +4563,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>1.6853</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4469,6 +4618,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4523,6 +4673,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>1.7573</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4577,6 +4730,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>1.7199</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4629,6 +4785,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4681,6 +4838,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4733,6 +4891,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4944,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4839,6 +4999,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>1.7598</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4893,6 +5056,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>1.7476</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4945,6 +5111,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4999,6 +5166,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5051,6 +5221,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5105,6 +5276,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>1.8196</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5157,6 +5331,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5209,6 +5384,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5261,6 +5437,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5313,6 +5490,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5367,6 +5545,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5421,6 +5602,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>1.7882</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5475,6 +5659,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>1.8426</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5529,6 +5716,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>1.8194</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5583,6 +5773,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>1.8698</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5637,6 +5830,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>1.8195</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5689,6 +5885,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5743,6 +5940,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5797,6 +5997,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>1.8509</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5851,6 +6054,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>1.9255</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5903,6 +6109,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5955,6 +6162,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6009,6 +6217,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>1.8688</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6061,6 +6272,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6113,6 +6325,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6165,6 +6378,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6217,6 +6431,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6269,6 +6484,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6323,6 +6539,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6377,6 +6596,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>1.9428</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6431,6 +6653,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>2.0217</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6485,6 +6710,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O114" t="n">
+        <v>1.8705</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6539,6 +6767,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>1.9487</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6591,6 +6822,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6643,6 +6875,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6695,6 +6928,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6749,6 +6983,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>1.7758</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6803,6 +7040,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>1.8954</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6855,6 +7095,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6909,6 +7150,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>1.8001</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6961,6 +7205,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7015,6 +7260,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>1.9159</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7069,6 +7317,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7123,6 +7374,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>1.8389</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7175,6 +7429,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7229,6 +7484,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>1.8001</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7283,6 +7541,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>1.8309</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7335,6 +7596,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7389,6 +7651,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>1.801</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7441,6 +7706,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7495,6 +7761,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7549,6 +7818,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>1.8586</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7601,6 +7873,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7655,6 +7928,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>1.9499</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7709,6 +7985,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>1.8733</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7763,6 +8042,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7815,6 +8097,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7869,6 +8152,9 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>1.9236</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7921,6 +8207,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7973,6 +8260,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8025,6 +8313,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8077,6 +8366,7 @@
           <t>CGGUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8130,6 +8420,9 @@
         <is>
           <t>CGGUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>2.1643</v>
       </c>
     </row>
   </sheetData>
